--- a/_4 Validation/Calibration/Level Calibration Evaluation/Cal 5-point.xlsx
+++ b/_4 Validation/Calibration/Level Calibration Evaluation/Cal 5-point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\8D Process\Automated Test Results\Calibrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OLS Level Test Project\_Project Management\_4 Validation\Calibration\Level Calibration Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837934D-1FB9-49C8-82EC-5EB64F154241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70CFEB-9A43-485E-8D04-5701F07C38EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="435" windowWidth="20985" windowHeight="15165" activeTab="6" xr2:uid="{897E71F3-2EF0-41B3-84FF-10CE67F27C9D}"/>
+    <workbookView xWindow="2340" yWindow="540" windowWidth="16410" windowHeight="14730" activeTab="6" xr2:uid="{897E71F3-2EF0-41B3-84FF-10CE67F27C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="2" r:id="rId1"/>
@@ -265,18 +265,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -539,6 +537,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1416859708456841"/>
+          <c:y val="8.771929824561403E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -550,7 +556,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1982693705575362E-2"/>
+          <c:y val="0.11429824561403511"/>
+          <c:w val="0.72666814658117984"/>
+          <c:h val="0.8593859649122807"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1106,7 +1122,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$H$35</c15:sqref>
@@ -1134,7 +1150,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$D$36:$D$46</c15:sqref>
@@ -1182,7 +1198,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$H$36:$H$46</c15:sqref>
@@ -1229,7 +1245,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-3805-48C2-9308-012F3677CA40}"/>
                   </c:ext>
@@ -1242,7 +1258,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$E$35</c15:sqref>
@@ -1278,7 +1294,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$D$36:$D$41</c15:sqref>
@@ -1311,7 +1327,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$E$36:$E$41</c15:sqref>
@@ -1343,7 +1359,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-3805-48C2-9308-012F3677CA40}"/>
                   </c:ext>
@@ -1356,7 +1372,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$F$35</c15:sqref>
@@ -1382,7 +1398,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$D$36:$D$40</c15:sqref>
@@ -1412,7 +1428,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>aggr!$F$36:$F$40</c15:sqref>
@@ -1441,7 +1457,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-3805-48C2-9308-012F3677CA40}"/>
                   </c:ext>
@@ -5201,15 +5217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5549,48 +5565,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99999970686026951</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.99999941372062495</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.9999992182941666</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1.8218553225604573E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5600,156 +5616,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>16.984163242529547</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>16.984163242529547</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>5117011.3924440145</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.9052232146242412E-10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>9.9574704490256048E-6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>3.3191568163418684E-6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>16.984173199999997</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.5901745203896702</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2.1647550021576777E-3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>4430.143138983788</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.5363979324953086E-11</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.5832853038312091</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.5970637369481313</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.5832853038312091</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.5970637369481313</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.99643631021077794</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>4.404953750569813E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-2262.0812081894883</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.9052232146242412E-10</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.99783816308962259</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.9950344573319333</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.99783816308962259</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.9950344573319333</v>
       </c>
     </row>
@@ -5760,68 +5774,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.4277903225945989</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-1.79032259459877E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.5218773912060328</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2.1226087939671956E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.4121170716758789</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>8.8292832412140143E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.5042112676668911</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-1.2112676668909472E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>7.4010039468565907</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>-3.9468565908862274E-6</v>
       </c>
     </row>
@@ -5848,48 +5862,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99999970686026951</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.99999941372062495</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.9999992182941666</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1.8218553225604573E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5899,156 +5913,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>16.984163242529547</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>16.984163242529547</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>5117011.3924440145</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.9052232146242412E-10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>9.9574704490256048E-6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>3.3191568163418684E-6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>16.984173199999997</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.5901745203896702</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2.1647550021576777E-3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>4430.143138983788</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.5363979324953086E-11</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.5832853038312091</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.5970637369481313</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.5832853038312091</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.5970637369481313</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.99643631021077794</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>4.404953750569813E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-2262.0812081894883</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.9052232146242412E-10</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.99783816308962259</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.9950344573319333</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.99783816308962259</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.9950344573319333</v>
       </c>
     </row>
@@ -6059,68 +6071,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.4277903225945989</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-1.79032259459877E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.5218773912060328</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2.1226087939671956E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.4121170716758789</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>8.8292832412140143E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.5042112676668911</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-1.2112676668909472E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>7.4010039468565907</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>-3.9468565908862274E-6</v>
       </c>
     </row>
@@ -6147,48 +6159,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99999906590710907</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.99999813181509067</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.99999750908678753</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>3.211053872482497E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6198,156 +6210,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>16.557538267399082</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>16.557538267399082</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1605833.7589251001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.0837245128487938E-9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>3.0932600915954523E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1.0310866971984841E-5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>16.557569199999996</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.5893945691839093</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>3.8303124894860209E-3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>2503.554108315242</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1.4053987092681488E-10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.5772048053536629</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.6015843330141557</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.5772048053536629</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.6015843330141557</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.99588229665012162</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>7.8588268511746581E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-1267.2149616087638</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.0837245128487938E-9</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.99838332609776015</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.9933812672024831</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.99838332609776015</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.9933812672024831</v>
       </c>
     </row>
@@ -6358,68 +6368,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.523609674451297</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-6.0967445129689324E-4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.5175002065081173</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-1.5002065081173299E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.5052812706217606</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>4.7187293782391393E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.503155331865182</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-1.5533186518190689E-4</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>7.3984535165536416</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>-2.453516553641677E-3</v>
       </c>
     </row>
@@ -6446,48 +6456,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99999991207010797</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.9999998241402237</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.99999976552029823</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1.0277560258445818E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6497,156 +6507,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>18.019167631152651</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>18.019167631152651</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>17059042.923617966</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>3.1299590917523677E-11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>3.1688473459795463E-6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1.0562824486598488E-6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>18.019170799999998</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.5955164186151798</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1.1778892285888307E-3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>8146.3657071650796</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>4.0792377192696883E-12</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.5917678493916245</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.5992649878387351</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.5917678493916245</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.5992649878387351</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.99673262541503793</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.4132445996297424E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-4130.2594257041492</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3.1299590917523677E-11</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.99750062755102165</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.99596462327905422</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.99750062755102165</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.99596462327905422</v>
       </c>
     </row>
@@ -6657,68 +6665,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.4310023071318874</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-2.3071318873135738E-6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.5244179972121836</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-4.179972121836073E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.5148930501660143</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>1.0694983398540359E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.5096322103302224</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>1.3677896697776859E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>7.6010544351596891</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>-1.0544351596895041E-3</v>
       </c>
     </row>
@@ -6745,48 +6753,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99993379112403946</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.99986758663169428</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.99982344884225904</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2.6996777392211561E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6796,156 +6804,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>16.510330322031308</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>16.510330322031308</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>22653.322683915256</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>6.4670149737966898E-7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2.1864779686938756E-3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>7.2882598956462523E-4</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>16.5125168</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.6264117838978223</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>3.2229260468569325E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>298.68546916506841</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>8.2758180963236454E-8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.523843892997597</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.7289796747980475</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.523843892997597</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.7289796747980475</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-1.0073489929891197</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>6.6928948342033796E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-150.51020790602624</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>6.4670149737966898E-7</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-1.0286487714258827</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.98604921455235672</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-1.0286487714258827</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.98604921455235672</v>
       </c>
     </row>
@@ -6956,68 +6962,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.6535420544271355</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-3.0542054427135312E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.484604973643159</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>3.0395026356841104E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.4962809126424315</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>1.2719087357568881E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.5016152076455729</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>3.8479235442689941E-4</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>7.507956851641703</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>-1.2956851641702904E-2</v>
       </c>
     </row>
@@ -7028,48 +7034,48 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>0.99999933069886326</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>0.9999986613981745</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>0.9999979920972617</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>2.4080363126929706E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7079,156 +7085,154 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>8.6637131527222344</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>8.6637131527222344</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>1494094.274046167</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>6.6930113676180744E-7</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>1.1597277766495917E-5</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>5.7986388832479583E-6</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>8.6637247500000001</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>9.5926378938558088</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>3.3623643751142943E-3</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>2852.9441856014591</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>1.2286080862884784E-7</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>9.578170807598811</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>9.6071049801128066</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>9.578170807598811</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>9.6071049801128066</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>-0.99659470039106857</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>8.153227726496328E-4</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>-1222.3314910637648</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>6.6930113676180755E-7</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>-1.0001027511444365</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>-0.99308664963770077</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>-1.0001027511444365</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>-0.99308664963770077</v>
       </c>
     </row>
@@ -7239,57 +7243,57 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>3.5164000055714633</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>-1.4000055714631365E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>5.5065996222524278</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>2.400377747572513E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>3</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>6.5012011332427146</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>7.9886675728513268E-4</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>7.4967992389333915</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>-1.7992389333914005E-3</v>
       </c>
     </row>
@@ -7310,114 +7314,114 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>-7.1286866523288334E-2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>-6.3931425285134402E-2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>-5.6575984046980471E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>-4.9220542808826546E-2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>-4.1865101570672622E-2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>-3.4509660332518698E-2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>-2.7154219094364773E-2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9">
         <v>-1.9798777856210849E-2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10">
         <v>-1.2443336618056923E-2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11">
         <v>-5.0878953799029965E-3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12">
         <v>2.2675458582509297E-3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13">
         <v>9.6229870964048558E-3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7434,8 +7438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093AC943-1C20-4537-8D1B-941FBE52F89D}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7447,48 +7451,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99999917651268544</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.999998353026049</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.99999827816359665</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2.4416843642503078E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>24</v>
       </c>
     </row>
@@ -7498,156 +7502,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>79.636887798237566</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>79.636887798237566</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>13357809.182633506</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>4.0677065331858111E-65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1.3116009576173745E-4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>5.9618225346244293E-6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>79.637018958333329</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>9.5912369764070533</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1.3121325946283118E-3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>7309.6553013561606</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>9.6986460242069977E-72</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.5885157799575342</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>9.5939581728565724</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.5885157799575342</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>9.5939581728565724</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.99635672980749512</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.7261342615094797E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-3654.8336737303812</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>4.0677065331858111E-65</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-0.99692209544993859</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-0.99579136416505165</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>-0.99692209544993859</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-0.99579136416505165</v>
       </c>
     </row>
@@ -7680,80 +7682,80 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>9.5912369764070533</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>9.5901745203896702</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>9.5901745203896702</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>9.5893945691839093</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>9.5955164186151798</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>9.6264117838978223</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>9.5926378938558088</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>2.4782462823113454</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-1.2462823113454924E-3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>-0.99635672980749512</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>-0.99643631021077794</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>-0.99643631021077794</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>-0.99588229665012162</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>-0.99673262541503793</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>-1.0073489929891197</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>-0.99659470039106857</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3.524420848609215</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-2.4208486092152093E-3</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>2.5</v>
       </c>
       <c r="E26">
@@ -7786,16 +7788,16 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>4.4111783381378862</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>-1.7833813788659114E-4</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
@@ -7828,13 +7830,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>6.4018990842932615</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-1.8990842932611329E-3</v>
       </c>
       <c r="F28">
@@ -7863,13 +7865,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>7.5975271600622554</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>-3.5271600622550636E-3</v>
       </c>
       <c r="F29">
@@ -7898,46 +7900,46 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>2.4294248025507788</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>-3.424802550778594E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>3.5234244918794078</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>5.7550812059226075E-4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>5.4135132083242263</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>-5.1320832422607765E-4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>6.5055201841932409</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>-2.5201841932407376E-3</v>
       </c>
       <c r="E33">
@@ -7957,13 +7959,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>7.4022412410199863</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>-1.241241019986461E-3</v>
       </c>
       <c r="E34">
@@ -7983,13 +7985,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>2.5220859784228757</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>9.1402157712439092E-4</v>
       </c>
       <c r="E35" t="s">
@@ -8006,16 +8008,16 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>12</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>3.5164499947707553</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>-4.4999477075524652E-4</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
@@ -8024,24 +8026,24 @@
       <c r="F36">
         <v>-1.6990992436456409E-3</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>-1.3129166666669079E-2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>9.8916666666661879E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>5.5051780274665161</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>4.8219725334837094E-3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>2</v>
       </c>
       <c r="E37">
@@ -8050,24 +8052,24 @@
       <c r="F37">
         <v>-1.6990992436456409E-3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="6">
         <v>-9.2291666666675098E-3</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>7.041666666667501E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>14</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>6.5035274707336264</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>-5.2747073362624519E-4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
@@ -8076,24 +8078,24 @@
       <c r="F38">
         <v>1.9530580358440019E-3</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>-1.1949166666668454E-2</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="6">
         <v>1.3071666666667481E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>7.3992521708305645</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>-3.2521708305646158E-3</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>4</v>
       </c>
       <c r="E39">
@@ -8102,24 +8104,24 @@
       <c r="F39">
         <v>1.2722773477840121E-3</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <v>-3.2791666666689423E-3</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <v>-2.1908333333333418E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>16</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2.4294248025507788</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>1.5751974492212995E-3</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>5</v>
       </c>
       <c r="E40">
@@ -8128,24 +8130,24 @@
       <c r="F40">
         <v>-5.0284721983206992E-4</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="6">
         <v>-1.1891666666681289E-3</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <v>-2.7183333333316018E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>17</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3.5224281351496005</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1.571864850399507E-3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>6</v>
       </c>
       <c r="E41">
@@ -8154,132 +8156,132 @@
       <c r="F41">
         <v>-5.2763297962227895E-2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>-1.3789166666668962E-2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="6">
         <v>5.2316666666658573E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>18</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>5.5121525245751677</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>2.8474754248319911E-3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>7</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>-1.7139166666667371E-2</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <v>1.8031666666668E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>19</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>6.5065165409230481</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>4.4834590769520233E-3</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>8</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="6">
         <v>-1.00191666666678E-2</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <v>-1.4048333333332552E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>20</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>7.5975271600622554</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>2.4728399377442756E-3</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>-1.4359166666668699E-2</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="6">
         <v>2.8061666666666651E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>21</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>3.5164499947707553</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>-1.4499947707551364E-3</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="6">
         <v>-1.6689166666669308E-2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="6">
         <v>1.3381666666666403E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>5.5061743841963233</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2.8256158036770174E-3</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>11</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>-1.2239166666667245E-2</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <v>3.1816666666679705E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>6.5005384005442037</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>1.4615994557960477E-3</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>24</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>7.4958987736218905</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>-8.9877362189039189E-4</v>
       </c>
     </row>
@@ -8305,178 +8307,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2.5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>7.0880000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2.5259999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5.5960000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4.01</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>5.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>4.0979999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5.5030000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>6.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3.1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>6.5039999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>7.5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.1019999999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>7.492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>7.1390000000000002</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.4790000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3.5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>5.99</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.6269999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4.1980000000000004</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>5.41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6.5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>6.5270000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7.5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.0840000000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>7.508</v>
       </c>
     </row>
@@ -8984,16 +8986,16 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>1</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>2.5</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>6.9219999999999997</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="5">
         <v>2.6230000000000002</v>
       </c>
     </row>
